--- a/server/branch/protected/models/excel/example/小水电模板.xlsx
+++ b/server/branch/protected/models/excel/example/小水电模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>照片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>管理负责人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -101,14 +97,18 @@
   </si>
   <si>
     <t>手机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小水电</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,6 +132,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -141,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -164,25 +182,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -456,40 +537,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="A1:R2"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="5"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,31 +606,47 @@
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/server/branch/protected/models/excel/example/小水电模板.xlsx
+++ b/server/branch/protected/models/excel/example/小水电模板.xlsx
@@ -84,10 +84,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>全景图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>管理负责人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -101,6 +97,10 @@
   </si>
   <si>
     <t>小水电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>efd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -228,16 +228,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -259,10 +311,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,7 +604,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -538,107 +612,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="4" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="6" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>443</v>
+      </c>
+      <c r="D4">
+        <v>344</v>
+      </c>
+      <c r="E4">
+        <v>4334</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>323</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>18</v>
+      <c r="P4">
+        <v>3234242343</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="M1:Q1"/>
+  <mergeCells count="15">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/branch/protected/models/excel/example/小水电模板.xlsx
+++ b/server/branch/protected/models/excel/example/小水电模板.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/shuili/shuili/server/branch/protected/models/excel/example/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="500"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>电站名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -101,6 +106,23 @@
   </si>
   <si>
     <t>efd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发方式</t>
+    <rPh sb="0" eb="1">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <rPh sb="0" eb="1">
+      <t>d'd</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -293,51 +315,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -604,7 +626,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -612,110 +634,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4"/>
+      <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="1" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="2" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>22</v>
       </c>
@@ -725,20 +752,20 @@
       <c r="C4">
         <v>443</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
         <v>344</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>4334</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>33</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>43</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
       </c>
       <c r="I4">
         <v>4</v>
@@ -753,43 +780,42 @@
         <v>4</v>
       </c>
       <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
         <v>323</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>19</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>3234242343</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>